--- a/Assignment 1/Assignment 1 Test Case Description.xlsx
+++ b/Assignment 1/Assignment 1 Test Case Description.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -56,21 +56,12 @@
     <t>ASSIGNMENT 1</t>
   </si>
   <si>
-    <t>Verify that commas are used as decimal separators to display price</t>
-  </si>
-  <si>
     <t>1. View Product Function - Price Display</t>
   </si>
   <si>
     <t>2. View Product Function - Photo Display</t>
   </si>
   <si>
-    <t>Verify that the maximum number of photos displayed is 5</t>
-  </si>
-  <si>
-    <t>Verify that the frames of small and big photos are in the correct size</t>
-  </si>
-  <si>
     <t>Verify that the first photo is displayed on the big frame</t>
   </si>
   <si>
@@ -83,25 +74,51 @@
     <t>Verify that the &lt;&gt; button is properly aligned</t>
   </si>
   <si>
-    <t>Verify that user can click on the &lt;&gt; button to navigate photos</t>
-  </si>
-  <si>
     <t>Verify that discounted price is rounded to the nearest integer</t>
   </si>
   <si>
-    <t>Verify that the price displayed and the product name are in the correct text font</t>
-  </si>
-  <si>
-    <t>Verify that the price displayed and the product name are in the correct text colour</t>
-  </si>
-  <si>
-    <t>Verify that the price displayed and the product name are in the correct text size</t>
-  </si>
-  <si>
     <t>Verify that currency displayed is correct</t>
   </si>
   <si>
-    <t>Verify that the spelling of the product name and the location is correct</t>
+    <t>Verify that user can click on the &gt; button to navigate to the next photos</t>
+  </si>
+  <si>
+    <t>Verify that user can click on the &lt; button to navigate to the previous photos</t>
+  </si>
+  <si>
+    <t>Verify that the text is in the correct font</t>
+  </si>
+  <si>
+    <t>Verify that the text is in the correct size</t>
+  </si>
+  <si>
+    <t>Verify that the text is in the correct colour</t>
+  </si>
+  <si>
+    <t>Verify that the spelling is correct</t>
+  </si>
+  <si>
+    <t>Verify that commas are used as decimal separators to separate groups of thousands, millions, 
+billions, etc. for original price</t>
+  </si>
+  <si>
+    <t>Verify that commas are used as decimal separators to separate groups of thousands, millions, 
+billions, etc. for discounted price</t>
+  </si>
+  <si>
+    <t>Verify that the photo list cannot display less than 1 photo</t>
+  </si>
+  <si>
+    <t>Verify that the photo list can display from 1 to 5 photos</t>
+  </si>
+  <si>
+    <t>Verify that the photo list cannot display more than 5 photos</t>
+  </si>
+  <si>
+    <t>Verify that the frame for small photos are in the correct size</t>
+  </si>
+  <si>
+    <t>Verify that the frame for big photos are in the correct size</t>
   </si>
 </sst>
 </file>
@@ -634,16 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="49.81640625" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
@@ -700,7 +717,7 @@
     <row r="5" spans="2:10" ht="30" customHeight="1">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -710,12 +727,12 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="30" customHeight="1">
+    <row r="6" spans="2:10" ht="40" customHeight="1">
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="10"/>
@@ -725,30 +742,32 @@
       <c r="I6" s="8"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" ht="30" customHeight="1">
-      <c r="B7" s="9">
+    <row r="7" spans="2:10" ht="40" customHeight="1">
+      <c r="B7" s="8">
+        <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="16"/>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
+        <f>B7+1</f>
         <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -757,25 +776,27 @@
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1">
       <c r="B9" s="9">
+        <f t="shared" ref="B9:B13" si="0">B8+1</f>
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="18"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1">
       <c r="B10" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="15"/>
@@ -787,13 +808,14 @@
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -802,13 +824,14 @@
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
       <c r="B12" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="15"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -816,40 +839,41 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1">
-      <c r="B14" s="9">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="9">
-        <f>B14+1</f>
+        <f>B13+1</f>
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="15"/>
@@ -861,11 +885,11 @@
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1">
       <c r="B16" s="9">
-        <f t="shared" ref="B16:B20" si="0">B15+1</f>
+        <f>B15+1</f>
         <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
@@ -877,11 +901,11 @@
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
       <c r="B17" s="9">
-        <f t="shared" si="0"/>
+        <f>B16+1</f>
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="15"/>
@@ -893,13 +917,12 @@
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1">
       <c r="B18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B18:B25" si="1">B17+1</f>
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>12</v>
+      </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="13"/>
@@ -909,11 +932,11 @@
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1">
       <c r="B19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="15"/>
@@ -925,11 +948,11 @@
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
       <c r="B20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B20:B21" si="2">B19+1</f>
         <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="15"/>
@@ -938,6 +961,86 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" customHeight="1">
+      <c r="B21" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="2:10" ht="30" customHeight="1">
+      <c r="B22" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" customHeight="1">
+      <c r="B23" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" customHeight="1">
+      <c r="B24" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="2:10" ht="30" customHeight="1">
+      <c r="B25" s="9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
